--- a/tests/mx_rag/document/loader/files/test.xlsx
+++ b/tests/mx_rag/document/loader/files/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\mxRAG\tests\mx_rag\document\loader\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09632493-D4AB-433C-9C59-2865C466C4B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DE85F2-C541-40C8-9ECC-6BC9E337872D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="16245" activeTab="1" xr2:uid="{9C1927DD-C6F1-41F2-B661-D0AF29C81AED}"/>
   </bookViews>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90969CC3-2709-4814-9CC6-8A4F3E9D462A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -782,34 +782,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
